--- a/medicine/Sexualité et sexologie/Quand_les_filles_se_déchaînent/Quand_les_filles_se_déchaînent.xlsx
+++ b/medicine/Sexualité et sexologie/Quand_les_filles_se_déchaînent/Quand_les_filles_se_déchaînent.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Quand_les_filles_se_d%C3%A9cha%C3%AEnent</t>
+          <t>Quand_les_filles_se_déchaînent</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Quand les filles se déchaînent est un film français de Guy Maria tourné en 1972 et sorti en 1974[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Quand les filles se déchaînent est un film français de Guy Maria tourné en 1972 et sorti en 1974.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Quand_les_filles_se_d%C3%A9cha%C3%AEnent</t>
+          <t>Quand_les_filles_se_déchaînent</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mauvais coups et passions déchaînées autour d'un spectacle de cascade automobile itinérant.
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Quand_les_filles_se_d%C3%A9cha%C3%AEnent</t>
+          <t>Quand_les_filles_se_déchaînent</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : Quand les filles se déchaînent
 Réalisation : Guy Maria
@@ -560,7 +576,7 @@
 Format : couleur 35 mm
 Genre : action • érotique
 Durée : 88 minutes
-Interdiction aux moins de 18 ans à sa sortie en salles en France[2].
+Interdiction aux moins de 18 ans à sa sortie en salles en France.
 Visa de contrôle n°40517
 Sociétés de distribution :
  France : Étoile Distribution (1974)
@@ -585,7 +601,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Quand_les_filles_se_d%C3%A9cha%C3%AEnent</t>
+          <t>Quand_les_filles_se_déchaînent</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -603,7 +619,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Bob Asklöf : Karl
 Anne Kerylen : Liliane
